--- a/transfers_directions.xlsx
+++ b/transfers_directions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49B72A2-CF1D-4763-9D10-C65EC4CD6A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6BF74D-7CF2-4D51-8EF4-90B379093C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69F7CD84-3BCF-4DD3-924F-26FDCF089EDA}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="C5">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/transfers_directions.xlsx
+++ b/transfers_directions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6BF74D-7CF2-4D51-8EF4-90B379093C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80753B84-805D-426A-A155-1F958F22B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69F7CD84-3BCF-4DD3-924F-26FDCF089EDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>liga</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Primeira Liga</t>
+  </si>
+  <si>
+    <t>Serie A</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0773D3-7BF0-439C-B690-F998629BCC88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="C2">
-        <v>367</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -439,10 +442,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>540</v>
+        <v>465</v>
       </c>
       <c r="C3">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -450,10 +453,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="C4">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,10 +475,21 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="C6">
-        <v>172</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>291</v>
+      </c>
+      <c r="C7">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/transfers_directions.xlsx
+++ b/transfers_directions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80753B84-805D-426A-A155-1F958F22B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E4F36-5852-49EB-9587-7F0ED20688F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69F7CD84-3BCF-4DD3-924F-26FDCF089EDA}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,10 +464,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C5">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/transfers_directions.xlsx
+++ b/transfers_directions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E4F36-5852-49EB-9587-7F0ED20688F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A582423C-9EF7-4666-807D-FDDB29200AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69F7CD84-3BCF-4DD3-924F-26FDCF089EDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>liga</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Serie A</t>
+  </si>
+  <si>
+    <t>Eredivisie</t>
+  </si>
+  <si>
+    <t>Champioship</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0773D3-7BF0-439C-B690-F998629BCC88}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="C2">
-        <v>554</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="C3">
-        <v>479</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="C4">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +492,33 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C7">
-        <v>444</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>162</v>
+      </c>
+      <c r="C8">
+        <f>400-B8</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
